--- a/biology/Zoologie/Écureuil_volant/Écureuil_volant.xlsx
+++ b/biology/Zoologie/Écureuil_volant/Écureuil_volant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_volant</t>
+          <t>Écureuil_volant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'expression « écureuil volant », ou « écureuil planeur », est un nom vernaculaire ambigu en français qui désigne plusieurs groupes de rongeurs d'apparence proche des écureuils classiques mais disposant de capacités de « vol » grâce à la présence d'une membrane entre les membres antérieurs et postérieurs appelée patagium. Ils sont classés en deux groupes distincts :
 La sous-famille des Pteromyinae ou « vrais écureuils volants », de la même famille que les écureuils au sens strict, mais dont quelques espèces sont aussi appelées des polatouches.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cureuil_volant</t>
+          <t>Écureuil_volant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,28 +526,30 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[1] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
 Liste non exhaustive :
-Écureuil volant cendré — Eupetaurus cinereus[2]
-Écureuil volant d'Amérique du Nord — Glaucomys volans[3]
-Écureuil volant d'Eurasie — Pteromys volans[2]
-Écureuil volant de Beecroft — Anomalurus beecrofti[2],[4]
-Écureuil volant de Derby — Anomalurus derbianus [4]
-Écureuil volant de Java — Hylopetes lepidus[2]
-Écureuil volant de Pel — Anomalurus pelii [4]
-Écureuil volant de Sibérie — voir Écureuil volant d'Eurasie[3]
-Écureuil volant de Zenker — Idiurus zenkeri[2]
-Écureuil volant du Nord — Glaucomys sabrinus[2]
-Écureuil volant du Sud — Glaucomys volans[2]
-Écureuil volant géant de Chine — Petaurista xanthotis[2]
-Écureuil volant géant rouge et blanc — Petaurista alborufus[2]
-Écureuil volant japonais — Pteromys momonga[3]
-Écureuil volant pygmée — Anomalurus pusillus[2]
-Écureuil volant rouge — Petaurista petaurista[2]
-Écureuil volant — Pteromys volans[2] ou les espèces du genre Glaucomys[5]</t>
+Écureuil volant cendré — Eupetaurus cinereus
+Écureuil volant d'Amérique du Nord — Glaucomys volans
+Écureuil volant d'Eurasie — Pteromys volans
+Écureuil volant de Beecroft — Anomalurus beecrofti,
+Écureuil volant de Derby — Anomalurus derbianus 
+Écureuil volant de Java — Hylopetes lepidus
+Écureuil volant de Pel — Anomalurus pelii 
+Écureuil volant de Sibérie — voir Écureuil volant d'Eurasie
+Écureuil volant de Zenker — Idiurus zenkeri
+Écureuil volant du Nord — Glaucomys sabrinus
+Écureuil volant du Sud — Glaucomys volans
+Écureuil volant géant de Chine — Petaurista xanthotis
+Écureuil volant géant rouge et blanc — Petaurista alborufus
+Écureuil volant japonais — Pteromys momonga
+Écureuil volant pygmée — Anomalurus pusillus
+Écureuil volant rouge — Petaurista petaurista
+Écureuil volant — Pteromys volans ou les espèces du genre Glaucomys</t>
         </is>
       </c>
     </row>
